--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>22.51188433333334</v>
+        <v>0.1298123333333333</v>
       </c>
       <c r="H2">
-        <v>67.53565300000001</v>
+        <v>0.389437</v>
       </c>
       <c r="I2">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="J2">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>61.629167</v>
+        <v>200.005264</v>
       </c>
       <c r="N2">
-        <v>184.887501</v>
+        <v>600.0157919999999</v>
       </c>
       <c r="O2">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503665</v>
       </c>
       <c r="P2">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503667</v>
       </c>
       <c r="Q2">
-        <v>1387.388679063684</v>
+        <v>25.96314999878933</v>
       </c>
       <c r="R2">
-        <v>12486.49811157316</v>
+        <v>233.668349989104</v>
       </c>
       <c r="S2">
-        <v>0.6063119745569161</v>
+        <v>0.01365165555777229</v>
       </c>
       <c r="T2">
-        <v>0.6063119745569161</v>
+        <v>0.0136516555577723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>22.51188433333334</v>
+        <v>0.1298123333333333</v>
       </c>
       <c r="H3">
-        <v>67.53565300000001</v>
+        <v>0.389437</v>
       </c>
       <c r="I3">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="J3">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.073051</v>
       </c>
       <c r="O3">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924051</v>
       </c>
       <c r="P3">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924052</v>
       </c>
       <c r="Q3">
-        <v>30.56401766525589</v>
+        <v>0.1762440846985555</v>
       </c>
       <c r="R3">
-        <v>275.076158987303</v>
+        <v>1.586196762287</v>
       </c>
       <c r="S3">
-        <v>0.01335698509052281</v>
+        <v>9.267070977565201E-05</v>
       </c>
       <c r="T3">
-        <v>0.01335698509052281</v>
+        <v>9.267070977565204E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>22.51188433333334</v>
+        <v>0.1298123333333333</v>
       </c>
       <c r="H4">
-        <v>67.53565300000001</v>
+        <v>0.389437</v>
       </c>
       <c r="I4">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="J4">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.926218666666665</v>
+        <v>9.926218666666667</v>
       </c>
       <c r="N4">
         <v>29.778656</v>
       </c>
       <c r="O4">
-        <v>0.1361377151918736</v>
+        <v>0.04697930726370939</v>
       </c>
       <c r="P4">
-        <v>0.1361377151918736</v>
+        <v>0.0469793072637094</v>
       </c>
       <c r="Q4">
-        <v>223.4578864913742</v>
+        <v>1.288545606296889</v>
       </c>
       <c r="R4">
-        <v>2011.120978422368</v>
+        <v>11.596910456672</v>
       </c>
       <c r="S4">
-        <v>0.09765482047924458</v>
+        <v>0.0006775287585853893</v>
       </c>
       <c r="T4">
-        <v>0.09765482047924459</v>
+        <v>0.0006775287585853896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>21.223478</v>
       </c>
       <c r="I5">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098795</v>
       </c>
       <c r="J5">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.629167</v>
+        <v>200.005264</v>
       </c>
       <c r="N5">
-        <v>184.887501</v>
+        <v>600.0157919999999</v>
       </c>
       <c r="O5">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503665</v>
       </c>
       <c r="P5">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503667</v>
       </c>
       <c r="Q5">
-        <v>435.9950899942754</v>
+        <v>1414.935773462731</v>
       </c>
       <c r="R5">
-        <v>3923.955809948478</v>
+        <v>12734.42196116457</v>
       </c>
       <c r="S5">
-        <v>0.1905371204916796</v>
+        <v>0.7439858344069975</v>
       </c>
       <c r="T5">
-        <v>0.1905371204916796</v>
+        <v>0.7439858344069977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21.223478</v>
       </c>
       <c r="I6">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098795</v>
       </c>
       <c r="J6">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098797</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.073051</v>
       </c>
       <c r="O6">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924051</v>
       </c>
       <c r="P6">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924052</v>
       </c>
       <c r="Q6">
         <v>9.604923143486443</v>
@@ -818,10 +818,10 @@
         <v>86.44430829137799</v>
       </c>
       <c r="S6">
-        <v>0.004197511486489052</v>
+        <v>0.00505035415270746</v>
       </c>
       <c r="T6">
-        <v>0.004197511486489052</v>
+        <v>0.005050354152707461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21.223478</v>
       </c>
       <c r="I7">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098795</v>
       </c>
       <c r="J7">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098797</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.926218666666665</v>
+        <v>9.926218666666667</v>
       </c>
       <c r="N7">
         <v>29.778656</v>
       </c>
       <c r="O7">
-        <v>0.1361377151918736</v>
+        <v>0.04697930726370939</v>
       </c>
       <c r="P7">
-        <v>0.1361377151918736</v>
+        <v>0.0469793072637094</v>
       </c>
       <c r="Q7">
         <v>70.22296116506311</v>
@@ -880,10 +880,10 @@
         <v>632.006650485568</v>
       </c>
       <c r="S7">
-        <v>0.03068860434406692</v>
+        <v>0.03692385855017453</v>
       </c>
       <c r="T7">
-        <v>0.03068860434406693</v>
+        <v>0.03692385855017455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.390338</v>
       </c>
       <c r="I8">
-        <v>0.05725298355108088</v>
+        <v>0.1996180978639869</v>
       </c>
       <c r="J8">
-        <v>0.05725298355108088</v>
+        <v>0.199618097863987</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.629167</v>
+        <v>200.005264</v>
       </c>
       <c r="N8">
-        <v>184.887501</v>
+        <v>600.0157919999999</v>
       </c>
       <c r="O8">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503665</v>
       </c>
       <c r="P8">
-        <v>0.8452417044501688</v>
+        <v>0.9465949791503667</v>
       </c>
       <c r="Q8">
-        <v>110.7340135961487</v>
+        <v>359.3653249130773</v>
       </c>
       <c r="R8">
-        <v>996.606122365338</v>
+        <v>3234.287924217695</v>
       </c>
       <c r="S8">
-        <v>0.04839260940157308</v>
+        <v>0.1889574891855965</v>
       </c>
       <c r="T8">
-        <v>0.04839260940157308</v>
+        <v>0.1889574891855966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.390338</v>
       </c>
       <c r="I9">
-        <v>0.05725298355108088</v>
+        <v>0.1996180978639869</v>
       </c>
       <c r="J9">
-        <v>0.05725298355108088</v>
+        <v>0.199618097863987</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.073051</v>
       </c>
       <c r="O9">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924051</v>
       </c>
       <c r="P9">
-        <v>0.01862058035795759</v>
+        <v>0.006425713585924052</v>
       </c>
       <c r="Q9">
         <v>2.439457953470888</v>
@@ -1004,10 +1004,10 @@
         <v>21.955121581238</v>
       </c>
       <c r="S9">
-        <v>0.001066083780945725</v>
+        <v>0.001282688723440938</v>
       </c>
       <c r="T9">
-        <v>0.001066083780945726</v>
+        <v>0.001282688723440938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.390338</v>
       </c>
       <c r="I10">
-        <v>0.05725298355108088</v>
+        <v>0.1996180978639869</v>
       </c>
       <c r="J10">
-        <v>0.05725298355108088</v>
+        <v>0.199618097863987</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.926218666666665</v>
+        <v>9.926218666666667</v>
       </c>
       <c r="N10">
         <v>29.778656</v>
       </c>
       <c r="O10">
-        <v>0.1361377151918736</v>
+        <v>0.04697930726370939</v>
       </c>
       <c r="P10">
-        <v>0.1361377151918736</v>
+        <v>0.0469793072637094</v>
       </c>
       <c r="Q10">
         <v>17.83522455841422</v>
@@ -1066,10 +1066,10 @@
         <v>160.517021025728</v>
       </c>
       <c r="S10">
-        <v>0.00779429036856207</v>
+        <v>0.009377919954949453</v>
       </c>
       <c r="T10">
-        <v>0.007794290368562073</v>
+        <v>0.009377919954949457</v>
       </c>
     </row>
   </sheetData>
